--- a/PE loop sample 5/Sample B/Unnormalized_Pmax_Sample_5B_100kHz.xlsx
+++ b/PE loop sample 5/Sample B/Unnormalized_Pmax_Sample_5B_100kHz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,315 +444,475 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A11_bipolar_10V_100kHz.txt</t>
+          <t>A2_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.819359</v>
+        <v>59.986771</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A14_bipolar_10V_100kHz.txt</t>
+          <t>A3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.74407</v>
+        <v>61.59239</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A15_bipolar_10V_100kHz.txt</t>
+          <t>A5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.28285</v>
+        <v>61.745306</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A2_bipolar_10V_100kHz.txt</t>
+          <t>A8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.986771</v>
+        <v>76.266867</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A3_bipolar_10V_100kHz.txt</t>
+          <t>A9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.59239</v>
+        <v>73.44156099999999</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A5_bipolar_10V_100kHz.txt</t>
+          <t>A11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.745306</v>
+        <v>62.819359</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A8_bipolar_10V_100kHz.txt</t>
+          <t>A14_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.266867</v>
+        <v>60.74407</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A14</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A9_bipolar_10V_100kHz.txt</t>
+          <t>A15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.44156099999999</v>
+        <v>58.28285</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C10_bipolar_10V_100kHz.txt</t>
+          <t>C1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.255359</v>
+        <v>59.673658</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C11_bipolar_10V_100kHz.txt</t>
+          <t>C3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.540582</v>
+        <v>70.405086</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_100kHz.txt</t>
+          <t>C6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.190208</v>
+        <v>84.47153900000001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C15_bipolar_10V_100kHz.txt</t>
+          <t>C8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.680939</v>
+        <v>62.067522</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C1_bipolar_10V_100kHz.txt</t>
+          <t>C10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.673658</v>
+        <v>77.255359</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_100kHz.txt</t>
+          <t>C11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.405086</v>
+        <v>78.540582</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C6_bipolar_10V_100kHz.txt</t>
+          <t>C13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.47153900000001</v>
+        <v>67.190208</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C8_bipolar_10V_100kHz.txt</t>
+          <t>C15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.067522</v>
+        <v>59.680939</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E12_bipolar_10V_100kHz.txt</t>
+          <t>E1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.098018</v>
+        <v>52.666827</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E13_bipolar_10V_100kHz.txt</t>
+          <t>E3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.753372</v>
+        <v>67.40683900000001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E15_bipolar_10V_100kHz.txt</t>
+          <t>E6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.863567</v>
+        <v>77.158877</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E1_bipolar_10V_100kHz.txt</t>
+          <t>E8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.666827</v>
+        <v>63.962588</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E3_bipolar_10V_100kHz.txt</t>
+          <t>E9_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.40683900000001</v>
+        <v>78.34579600000001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E6_bipolar_10V_100kHz.txt</t>
+          <t>E12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77.158877</v>
+        <v>69.098018</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E8_bipolar_10V_100kHz.txt</t>
+          <t>E13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.962588</v>
+        <v>69.753372</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E9_bipolar_10V_100kHz.txt</t>
+          <t>E15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.34579600000001</v>
+        <v>58.863567</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G10_bipolar_10V_100kHz.txt</t>
+          <t>G1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76.556315</v>
+        <v>54.405337</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G12_bipolar_10V_100kHz.txt</t>
+          <t>G3_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.06473200000001</v>
+        <v>66.057902</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G15_bipolar_10V_100kHz.txt</t>
+          <t>G5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.771894</v>
+        <v>75.01077100000001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G1_bipolar_10V_100kHz.txt</t>
+          <t>G8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>54.405337</v>
+        <v>67.009986</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G3_bipolar_10V_100kHz.txt</t>
+          <t>G10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.057902</v>
+        <v>76.556315</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G5_bipolar_10V_100kHz.txt</t>
+          <t>G12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.01077100000001</v>
+        <v>73.06473200000001</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G8_bipolar_10V_100kHz.txt</t>
+          <t>G15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.009986</v>
+        <v>56.771894</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -764,85 +924,130 @@
       <c r="B33" t="n">
         <v>64.659812</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I10_bipolar_10V_100kHz.txt</t>
+          <t>I1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.69967800000001</v>
+        <v>58.024349</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I12_bipolar_10V_100kHz.txt</t>
+          <t>I4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.971957</v>
+        <v>80.45021199999999</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I13_bipolar_10V_100kHz.txt</t>
+          <t>I5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.47927199999999</v>
+        <v>81.83555800000001</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I15_bipolar_10V_100kHz.txt</t>
+          <t>I8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.326674</v>
+        <v>91.161615</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I1_bipolar_10V_100kHz.txt</t>
+          <t>I10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.024349</v>
+        <v>83.69967800000001</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I10</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I4_bipolar_10V_100kHz.txt</t>
+          <t>I12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80.45021199999999</v>
+        <v>75.971957</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I5_bipolar_10V_100kHz.txt</t>
+          <t>I13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.83555800000001</v>
+        <v>77.47927199999999</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I8_bipolar_10V_100kHz.txt</t>
+          <t>I15_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.161615</v>
+        <v>64.326674</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -854,45 +1059,70 @@
       <c r="B42" t="n">
         <v>40.408059</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K10_bipolar_10V_100kHz.txt</t>
+          <t>K1_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.03463600000001</v>
+        <v>72.87176700000001</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K13_bipolar_10V_100kHz.txt</t>
+          <t>K5_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>65.664689</v>
+        <v>82.033985</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_100kHz.txt</t>
+          <t>K10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.87176700000001</v>
+        <v>84.03463600000001</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>K5_bipolar_10V_100kHz.txt</t>
+          <t>K13_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.033985</v>
+        <v>65.664689</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -904,55 +1134,85 @@
       <c r="B47" t="n">
         <v>76.91858000000001</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M10_bipolar_10V_100kHz.txt</t>
+          <t>M6_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>82.723928</v>
+        <v>86.56685299999999</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M12_bipolar_10V_100kHz.txt</t>
+          <t>M8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>77.435582</v>
+        <v>87.48070800000001</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M14_bipolar_10V_100kHz.txt</t>
+          <t>M10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>73.215828</v>
+        <v>82.723928</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M6_bipolar_10V_100kHz.txt</t>
+          <t>M12_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>86.56685299999999</v>
+        <v>77.435582</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M12</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M8_bipolar_10V_100kHz.txt</t>
+          <t>M14_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>87.48070800000001</v>
+        <v>73.215828</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M14</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -964,55 +1224,85 @@
       <c r="B53" t="n">
         <v>76.79297099999999</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>O10_bipolar_10V_100kHz.txt</t>
+          <t>O2_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>83.27551800000001</v>
+        <v>69.784319</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>O11_bipolar_10V_100kHz.txt</t>
+          <t>O4_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>85.855065</v>
+        <v>83.03158000000001</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O4</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>O2_bipolar_10V_100kHz.txt</t>
+          <t>O8_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>69.784319</v>
+        <v>87.988608</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O8</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>O4_bipolar_10V_100kHz.txt</t>
+          <t>O10_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>83.03158000000001</v>
+        <v>83.27551800000001</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>O10</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>O8_bipolar_10V_100kHz.txt</t>
+          <t>O11_bipolar_10V_100kHz.txt</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>87.988608</v>
+        <v>85.855065</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O11</t>
+        </is>
       </c>
     </row>
   </sheetData>
